--- a/estimates/sportsExpenditure.xlsx
+++ b/estimates/sportsExpenditure.xlsx
@@ -69,7 +69,7 @@
     <t>Pawlowski et al. (2019) Figure 2 &amp; Text p. 19</t>
   </si>
   <si>
-    <t>The authors do not present their estimates in a table with standard errors. Instead they show the effect for each year in Figure 2. The effect is also somewhat jumpy between years.  However, the authors mention in the text what they believe to be the average effect. (i.e. 260€ for men / 0 for women). Looking at the graph these appear to be significant at at about 10%.</t>
+    <t>The authors do not present their estimates in a table with standard errors. Instead they show the effect for each year in Figure 2. The effect is also somewhat jumpy between years.  However, the authors mention in the text what they believe to be the average effect. (i.e. 260€ for men / 0 for women when comparing high to low expenditure). Looking at the graph these appear to be significant at at about 10%.</t>
   </si>
 </sst>
 </file>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,5 +991,6 @@
     <hyperlink ref="L2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/estimates/sportsExpenditure.xlsx
+++ b/estimates/sportsExpenditure.xlsx
@@ -63,13 +63,13 @@
     <t>earnings_effect_high_vs_low</t>
   </si>
   <si>
-    <t>https://ideas.repec.org/p/diw/diwsop/diw_sp1040.html</t>
-  </si>
-  <si>
     <t>Pawlowski et al. (2019) Figure 2 &amp; Text p. 19</t>
   </si>
   <si>
     <t>The authors do not present their estimates in a table with standard errors. Instead they show the effect for each year in Figure 2. The effect is also somewhat jumpy between years.  However, the authors mention in the text what they believe to be the average effect. (i.e. 260€ for men / 0 for women when comparing high to low expenditure). Looking at the graph these appear to be significant at at about 10%.</t>
+  </si>
+  <si>
+    <t>https://ideas.repec.org/p/usg/econwp/201906.html</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -987,10 +987,7 @@
       <c r="L5" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/estimates/sportsExpenditure.xlsx
+++ b/estimates/sportsExpenditure.xlsx
@@ -893,7 +893,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/estimates/sportsExpenditure.xlsx
+++ b/estimates/sportsExpenditure.xlsx
@@ -63,13 +63,13 @@
     <t>earnings_effect_high_vs_low</t>
   </si>
   <si>
-    <t>Pawlowski et al. (2019) Figure 2 &amp; Text p. 19</t>
-  </si>
-  <si>
-    <t>The authors do not present their estimates in a table with standard errors. Instead they show the effect for each year in Figure 2. The effect is also somewhat jumpy between years.  However, the authors mention in the text what they believe to be the average effect. (i.e. 260€ for men / 0 for women when comparing high to low expenditure). Looking at the graph these appear to be significant at at about 10%.</t>
-  </si>
-  <si>
     <t>https://ideas.repec.org/p/usg/econwp/201906.html</t>
+  </si>
+  <si>
+    <t>Pawlowski et al. (2019) Figure 2 &amp; Text p. 19, Figure 5 of the published version</t>
+  </si>
+  <si>
+    <t>The authors do not present their estimates in a table with standard errors. Instead they show the effect for each year in Figure 2. The effect is also somewhat jumpy between years.  However, the authors mention in the text what they believe to be the average effect. (i.e. 260€ for men / 0 for women when comparing high to low expenditure). Looking at the graph these appear to be significant at at about 5%. The results appear to be unchanged in the version that was published in Labor Economics in 2021.</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -962,19 +962,19 @@
         <v>260</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
